--- a/v0.7/StructureDefinition-Task.xlsx
+++ b/v0.7/StructureDefinition-Task.xlsx
@@ -1568,10 +1568,10 @@
     <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.07421875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="92.87109375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="92.91015625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1584,14 +1584,14 @@
     <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="163.1484375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="163.1875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="46.77734375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.0859375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="32.76953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="32.79296875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>

--- a/v0.7/StructureDefinition-Task.xlsx
+++ b/v0.7/StructureDefinition-Task.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/HCXTask</t>
+    <t>https://swasth-digital-health-foundation.github.io/standards/v0.7/StructureDefinition-Task.html</t>
   </si>
   <si>
     <t>Version</t>

--- a/v0.7/StructureDefinition-Task.xlsx
+++ b/v0.7/StructureDefinition-Task.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1715" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2030" uniqueCount="416">
   <si>
     <t>Property</t>
   </si>
@@ -99,7 +99,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/DomainResource</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Task</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -241,9 +241,6 @@
   </si>
   <si>
     <t>A task to be performed</t>
-  </si>
-  <si>
-    <t>DomainResource</t>
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
@@ -420,16 +417,6 @@
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>DomainResource.extension</t>
   </si>
   <si>
@@ -453,6 +440,381 @@
     <t>DomainResource.modifierExtension</t>
   </si>
   <si>
+    <t>Task.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Task Instance Identifier</t>
+  </si>
+  <si>
+    <t>The business identifier for this task.</t>
+  </si>
+  <si>
+    <t>Request.identifier, Event.identifier</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>Task.instantiatesCanonical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">canonical(ActivityDefinition)
+</t>
+  </si>
+  <si>
+    <t>Formal definition of task</t>
+  </si>
+  <si>
+    <t>The URL pointing to a *FHIR*-defined protocol, guideline, orderset or other definition that is adhered to in whole or in part by this Task.</t>
+  </si>
+  <si>
+    <t>Enables a formal definition of how he task is to be performed, enabling automation.</t>
+  </si>
+  <si>
+    <t>Request.instantiatesCanonical, Event.instantiatesCanonical</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=DEFN].target</t>
+  </si>
+  <si>
+    <t>Task.instantiatesUri</t>
+  </si>
+  <si>
+    <t>The URL pointing to an *externally* maintained  protocol, guideline, orderset or other definition that is adhered to in whole or in part by this Task.</t>
+  </si>
+  <si>
+    <t>Enables a formal definition of how he task is to be performed (e.g. using BPMN, BPEL, XPDL or other formal notation to be associated with a task), enabling automation.</t>
+  </si>
+  <si>
+    <t>Event.instantiatesUrl</t>
+  </si>
+  <si>
+    <t>Task.basedOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Resource)
+</t>
+  </si>
+  <si>
+    <t>Request fulfilled by this task</t>
+  </si>
+  <si>
+    <t>BasedOn refers to a higher-level authorization that triggered the creation of the task.  It references a "request" resource such as a ServiceRequest, MedicationRequest, ServiceRequest, CarePlan, etc. which is distinct from the "request" resource the task is seeking to fulfill.  This latter resource is referenced by FocusOn.  For example, based on a ServiceRequest (= BasedOn), a task is created to fulfill a procedureRequest ( = FocusOn ) to collect a specimen from a patient.</t>
+  </si>
+  <si>
+    <t>Request.basedOn, Event.basedOn</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=FLFS].target[moodCode=INT]</t>
+  </si>
+  <si>
+    <t>Task.groupIdentifier</t>
+  </si>
+  <si>
+    <t>Requisition or grouper id</t>
+  </si>
+  <si>
+    <t>An identifier that links together multiple tasks and other requests that were created in the same context.</t>
+  </si>
+  <si>
+    <t>Billing and/or reporting can be linked to whether multiple requests were created as a single unit.</t>
+  </si>
+  <si>
+    <t>Request.groupIdentifier</t>
+  </si>
+  <si>
+    <t>.inboundRelationship[typeCode=COMP].source[moodCode=INT].id</t>
+  </si>
+  <si>
+    <t>Task.partOf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Task)
+</t>
+  </si>
+  <si>
+    <t>Composite task</t>
+  </si>
+  <si>
+    <t>Task that this particular task is part of.</t>
+  </si>
+  <si>
+    <t>This should usually be 0..1.</t>
+  </si>
+  <si>
+    <t>Allows tasks to be broken down into sub-steps (and this division can occur independent of the original task).</t>
+  </si>
+  <si>
+    <t>Event.partOf</t>
+  </si>
+  <si>
+    <t>.inboundRelationship[typeCode=COMP].source[moodCode=INT]</t>
+  </si>
+  <si>
+    <t>Task.status</t>
+  </si>
+  <si>
+    <t>draft | requested | received | accepted | +</t>
+  </si>
+  <si>
+    <t>The current status of the task.</t>
+  </si>
+  <si>
+    <t>These states enable coordination of task status with off-the-shelf workflow solutions that support automation of tasks.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/task-status|4.0.1</t>
+  </si>
+  <si>
+    <t>Request.status, Event.status</t>
+  </si>
+  <si>
+    <t>.statusCode</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>Task.statusReason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Reason for current status</t>
+  </si>
+  <si>
+    <t>An explanation as to why this task is held, failed, was refused, etc.</t>
+  </si>
+  <si>
+    <t>This applies to the current status.  Look at the history of the task to see reasons for past statuses.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes to identify the reason for current status.  These will typically be specific to a particular workflow.</t>
+  </si>
+  <si>
+    <t>.inboundRelationship[typeCode=SUBJ].source[classCode=CACT, moodCode=EVN, code="status change"].reasonCode</t>
+  </si>
+  <si>
+    <t>Task.businessStatus</t>
+  </si>
+  <si>
+    <t>E.g. "Specimen collected", "IV prepped"</t>
+  </si>
+  <si>
+    <t>Contains business-specific nuances of the business state.</t>
+  </si>
+  <si>
+    <t>There's often a need to track substates of a task - this is often variable by specific workflow implementation.</t>
+  </si>
+  <si>
+    <t>The domain-specific business-contextual sub-state of the task.  For example: "Blood drawn", "IV inserted", "Awaiting physician signature", etc.</t>
+  </si>
+  <si>
+    <t>.inboundRelationship[typeCode=SUBJ].source[classCode=OBS, moodCode=EVN, code="business status"]</t>
+  </si>
+  <si>
+    <t>Task.intent</t>
+  </si>
+  <si>
+    <t>unknown | proposal | plan | order | original-order | reflex-order | filler-order | instance-order | option</t>
+  </si>
+  <si>
+    <t>Indicates the "level" of actionability associated with the Task, i.e. i+R[9]Cs this a proposed task, a planned task, an actionable task, etc.</t>
+  </si>
+  <si>
+    <t>This element is immutable.  Proposed tasks, planned tasks, etc. must be distinct instances.
+In most cases, Tasks will have an intent of "order".</t>
+  </si>
+  <si>
+    <t>Distinguishes whether the task is a proposal, plan or full order.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/task-intent|4.0.1</t>
+  </si>
+  <si>
+    <t>Request.intent</t>
+  </si>
+  <si>
+    <t>.moodCode</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>Task.priority</t>
+  </si>
+  <si>
+    <t>routine | urgent | asap | stat</t>
+  </si>
+  <si>
+    <t>Indicates how quickly the Task should be addressed with respect to other requests.</t>
+  </si>
+  <si>
+    <t>Used to identify the service level expected while performing a task.</t>
+  </si>
+  <si>
+    <t>If missing, this task should be performed with normal priority</t>
+  </si>
+  <si>
+    <t>The task's priority.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/request-priority|4.0.1</t>
+  </si>
+  <si>
+    <t>Request.priority</t>
+  </si>
+  <si>
+    <t>.priorityCode</t>
+  </si>
+  <si>
+    <t>FiveWs.grade</t>
+  </si>
+  <si>
+    <t>Task.code</t>
+  </si>
+  <si>
+    <t>Task Type</t>
+  </si>
+  <si>
+    <t>A name or code (or both) briefly describing what the task involves.</t>
+  </si>
+  <si>
+    <t>The title (eg "My Tasks", "Outstanding Tasks for Patient X") should go into the code.</t>
+  </si>
+  <si>
+    <t>Codes to identify what the task involves.  These will typically be specific to a particular workflow.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/task-code</t>
+  </si>
+  <si>
+    <t>Request.code, Event.code</t>
+  </si>
+  <si>
+    <t>.code</t>
+  </si>
+  <si>
+    <t>FiveWs.what[x]</t>
+  </si>
+  <si>
+    <t>Task.description</t>
+  </si>
+  <si>
+    <t>Human-readable explanation of task</t>
+  </si>
+  <si>
+    <t>A free-text description of what is to be performed.</t>
+  </si>
+  <si>
+    <t>.text</t>
+  </si>
+  <si>
+    <t>Task.focus</t>
+  </si>
+  <si>
+    <t>What task is acting on</t>
+  </si>
+  <si>
+    <t>The request being actioned or the resource being manipulated by this task.</t>
+  </si>
+  <si>
+    <t>If multiple resources need to be manipulated, use sub-tasks.  (This ensures that status can be tracked independently for each referenced resource.).</t>
+  </si>
+  <si>
+    <t>Used to identify the thing to be done.</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=SUBJ].target</t>
+  </si>
+  <si>
+    <t>Task.for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patient
+</t>
+  </si>
+  <si>
+    <t>Beneficiary of the Task</t>
+  </si>
+  <si>
+    <t>The entity who benefits from the performance of the service specified in the task (e.g., the patient).</t>
+  </si>
+  <si>
+    <t>Used to track tasks outstanding for a beneficiary.  Do not use to track the task owner or creator (see owner and creator respectively).  This can also affect access control.</t>
+  </si>
+  <si>
+    <t>Request.subject, Event.subject</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=RCT].role</t>
+  </si>
+  <si>
+    <t>FiveWs.subject</t>
+  </si>
+  <si>
+    <t>Task.encounter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Encounter)
+</t>
+  </si>
+  <si>
+    <t>Healthcare event during which this task originated</t>
+  </si>
+  <si>
+    <t>The healthcare event  (e.g. a patient and healthcare provider interaction) during which this task was created.</t>
+  </si>
+  <si>
+    <t>For some tasks it may be important to know the link between the encounter the task originated within.</t>
+  </si>
+  <si>
+    <t>Request.context, Event.context</t>
+  </si>
+  <si>
+    <t>.inboundRelationship[typeCode=COMP].source[classCode=PCPR, moodCode=EVN]</t>
+  </si>
+  <si>
+    <t>FiveWs.context</t>
+  </si>
+  <si>
+    <t>Task.executionPeriod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Start and end time of execution</t>
+  </si>
+  <si>
+    <t>Identifies the time action was first taken against the task (start) and/or the time final action was taken against the task prior to marking it as completed (end).</t>
+  </si>
+  <si>
+    <t>Event.occurrence[x]</t>
+  </si>
+  <si>
+    <t>.effectiveTime</t>
+  </si>
+  <si>
+    <t>FiveWs.done[x]</t>
+  </si>
+  <si>
     <t>Task.authoredOn</t>
   </si>
   <si>
@@ -486,217 +848,351 @@
     <t>FiveWs.recorded</t>
   </si>
   <si>
-    <t>Task.basedOn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t>Task.lastModified</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update Date
 </t>
   </si>
   <si>
-    <t>Request fulfilled by this task</t>
-  </si>
-  <si>
-    <t>BasedOn refers to a higher-level authorization that triggered the creation of the task.  It references a "request" resource such as a ServiceRequest, MedicationRequest, ServiceRequest, CarePlan, etc. which is distinct from the "request" resource the task is seeking to fulfill.  This latter resource is referenced by FocusOn.  For example, based on a ServiceRequest (= BasedOn), a task is created to fulfill a procedureRequest ( = FocusOn ) to collect a specimen from a patient.</t>
-  </si>
-  <si>
-    <t>Request.basedOn, Event.basedOn</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=FLFS].target[moodCode=INT]</t>
-  </si>
-  <si>
-    <t>Task.businessStatus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
+    <t>Task Last Modified Date</t>
+  </si>
+  <si>
+    <t>The date and time of last modification to this task.</t>
+  </si>
+  <si>
+    <t>Used along with history to track task activity and time in a particular task state.  This enables monitoring and management.</t>
+  </si>
+  <si>
+    <t>.inboundRelationship[typeCode=SUBJ, ].source[classCode=CACT, moodCode=EVN].effectiveTime</t>
+  </si>
+  <si>
+    <t>Task.requester</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Device|Organization|Patient|Practitioner|PractitionerRole|RelatedPerson)
 </t>
   </si>
   <si>
-    <t>E.g. "Specimen collected", "IV prepped"</t>
-  </si>
-  <si>
-    <t>Contains business-specific nuances of the business state.</t>
-  </si>
-  <si>
-    <t>There's often a need to track substates of a task - this is often variable by specific workflow implementation.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>The domain-specific business-contextual sub-state of the task.  For example: "Blood drawn", "IV inserted", "Awaiting physician signature", etc.</t>
-  </si>
-  <si>
-    <t>.inboundRelationship[typeCode=SUBJ].source[classCode=OBS, moodCode=EVN, code="business status"]</t>
-  </si>
-  <si>
-    <t>Task.code</t>
-  </si>
-  <si>
-    <t>Task Type</t>
-  </si>
-  <si>
-    <t>A name or code (or both) briefly describing what the task involves.</t>
-  </si>
-  <si>
-    <t>The title (eg "My Tasks", "Outstanding Tasks for Patient X") should go into the code.</t>
-  </si>
-  <si>
-    <t>Codes to identify what the task involves.  These will typically be specific to a particular workflow.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/task-code</t>
-  </si>
-  <si>
-    <t>Request.code, Event.code</t>
-  </si>
-  <si>
-    <t>.code</t>
-  </si>
-  <si>
-    <t>FiveWs.what[x]</t>
-  </si>
-  <si>
-    <t>Task.description</t>
-  </si>
-  <si>
-    <t>Human-readable explanation of task</t>
-  </si>
-  <si>
-    <t>A free-text description of what is to be performed.</t>
-  </si>
-  <si>
-    <t>.text</t>
-  </si>
-  <si>
-    <t>Task.encounter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t>Who is asking for task to be done</t>
+  </si>
+  <si>
+    <t>The creator of the task.</t>
+  </si>
+  <si>
+    <t>Identifies who created this task.  May be used by access control mechanisms (e.g., to ensure that only the creator can cancel a task).</t>
+  </si>
+  <si>
+    <t>Request.requester</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=AUT].role</t>
+  </si>
+  <si>
+    <t>FiveWs.author</t>
+  </si>
+  <si>
+    <t>Task.performerType</t>
+  </si>
+  <si>
+    <t>Requested performer</t>
+  </si>
+  <si>
+    <t>The kind of participant that should perform the task.</t>
+  </si>
+  <si>
+    <t>Use to distinguish tasks on different activity queues.</t>
+  </si>
+  <si>
+    <t>The type(s) of task performers allowed.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/performer-role</t>
+  </si>
+  <si>
+    <t>Event.performer.role, Request.performerType</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=PRF].role.code</t>
+  </si>
+  <si>
+    <t>FiveWs.actor</t>
+  </si>
+  <si>
+    <t>Task.owner</t>
+  </si>
+  <si>
+    <t>Performer
+Executer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam|HealthcareService|Patient|Device|RelatedPerson)
 </t>
   </si>
   <si>
-    <t>Healthcare event during which this task originated</t>
-  </si>
-  <si>
-    <t>The healthcare event  (e.g. a patient and healthcare provider interaction) during which this task was created.</t>
-  </si>
-  <si>
-    <t>For some tasks it may be important to know the link between the encounter the task originated within.</t>
-  </si>
-  <si>
-    <t>Request.context, Event.context</t>
-  </si>
-  <si>
-    <t>.inboundRelationship[typeCode=COMP].source[classCode=PCPR, moodCode=EVN]</t>
-  </si>
-  <si>
-    <t>FiveWs.context</t>
-  </si>
-  <si>
-    <t>Task.executionPeriod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
+    <t>Responsible individual</t>
+  </si>
+  <si>
+    <t>Individual organization or Device currently responsible for task execution.</t>
+  </si>
+  <si>
+    <t>Tasks may be created with an owner not yet identified.</t>
+  </si>
+  <si>
+    <t>Identifies who is expected to perform this task.</t>
+  </si>
+  <si>
+    <t>Event.performer.actor, Request.performer</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=PRF].role</t>
+  </si>
+  <si>
+    <t>Task.location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Location)
 </t>
   </si>
   <si>
-    <t>Start and end time of execution</t>
-  </si>
-  <si>
-    <t>Identifies the time action was first taken against the task (start) and/or the time final action was taken against the task prior to marking it as completed (end).</t>
-  </si>
-  <si>
-    <t>Event.occurrence[x]</t>
-  </si>
-  <si>
-    <t>.effectiveTime</t>
-  </si>
-  <si>
-    <t>FiveWs.done[x]</t>
-  </si>
-  <si>
-    <t>Task.focus</t>
-  </si>
-  <si>
-    <t>What task is acting on</t>
-  </si>
-  <si>
-    <t>The request being actioned or the resource being manipulated by this task.</t>
-  </si>
-  <si>
-    <t>If multiple resources need to be manipulated, use sub-tasks.  (This ensures that status can be tracked independently for each referenced resource.).</t>
-  </si>
-  <si>
-    <t>Used to identify the thing to be done.</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=SUBJ].target</t>
-  </si>
-  <si>
-    <t>Task.for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patient
+    <t>Where task occurs</t>
+  </si>
+  <si>
+    <t>Principal physical location where the this task is performed.</t>
+  </si>
+  <si>
+    <t>Ties the event to where the records are likely kept and provides context around the event occurrence (e.g. if it occurred inside or outside a dedicated healthcare setting).</t>
+  </si>
+  <si>
+    <t>Request.reasonCode, Event.reasonCode</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=LOC].role</t>
+  </si>
+  <si>
+    <t>FiveWs.where[x]</t>
+  </si>
+  <si>
+    <t>Task.reasonCode</t>
+  </si>
+  <si>
+    <t>Why task is needed</t>
+  </si>
+  <si>
+    <t>A description or code indicating why this task needs to be performed.</t>
+  </si>
+  <si>
+    <t>This should only be included if there is no focus or if it differs from the reason indicated on the focus.</t>
+  </si>
+  <si>
+    <t>Indicates why the task is needed.  E.g. Suspended because patient admitted to hospital.</t>
+  </si>
+  <si>
+    <t>Event.location</t>
+  </si>
+  <si>
+    <t>.reasonCode</t>
+  </si>
+  <si>
+    <t>FiveWs.why[x]</t>
+  </si>
+  <si>
+    <t>EVN.7</t>
+  </si>
+  <si>
+    <t>Task.reasonReference</t>
+  </si>
+  <si>
+    <t>A resource reference indicating why this task needs to be performed.</t>
+  </si>
+  <si>
+    <t>Tasks might be justified based on an Observation, a Condition, a past or planned procedure, etc.   This should only be included if there is no focus or if it differs from the reason indicated on the focus.    Use the CodeableConcept text element in `Task.reasonCode` if the data is free (uncoded) text.</t>
+  </si>
+  <si>
+    <t>Request.reasonReference, Event.reasonReference</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=RSON].target</t>
+  </si>
+  <si>
+    <t>Task.insurance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Coverage|ClaimResponse)
 </t>
   </si>
   <si>
-    <t>Beneficiary of the Task</t>
-  </si>
-  <si>
-    <t>The entity who benefits from the performance of the service specified in the task (e.g., the patient).</t>
-  </si>
-  <si>
-    <t>Used to track tasks outstanding for a beneficiary.  Do not use to track the task owner or creator (see owner and creator respectively).  This can also affect access control.</t>
-  </si>
-  <si>
-    <t>Request.subject, Event.subject</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=RCT].role</t>
-  </si>
-  <si>
-    <t>FiveWs.subject</t>
-  </si>
-  <si>
-    <t>Task.groupIdentifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
+    <t>Associated insurance coverage</t>
+  </si>
+  <si>
+    <t>Insurance plans, coverage extensions, pre-authorizations and/or pre-determinations that may be relevant to the Task.</t>
+  </si>
+  <si>
+    <t>Request.insurance</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=COVBY].target</t>
+  </si>
+  <si>
+    <t>IN1/IN2</t>
+  </si>
+  <si>
+    <t>Task.note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annotation
 </t>
   </si>
   <si>
-    <t>Requisition or grouper id</t>
-  </si>
-  <si>
-    <t>An identifier that links together multiple tasks and other requests that were created in the same context.</t>
-  </si>
-  <si>
-    <t>Billing and/or reporting can be linked to whether multiple requests were created as a single unit.</t>
-  </si>
-  <si>
-    <t>Request.groupIdentifier</t>
-  </si>
-  <si>
-    <t>.inboundRelationship[typeCode=COMP].source[moodCode=INT].id</t>
-  </si>
-  <si>
-    <t>Task.identifier</t>
-  </si>
-  <si>
-    <t>Task Instance Identifier</t>
-  </si>
-  <si>
-    <t>The business identifier for this task.</t>
-  </si>
-  <si>
-    <t>Request.identifier, Event.identifier</t>
-  </si>
-  <si>
-    <t>.id</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
+    <t>Comments made about the task</t>
+  </si>
+  <si>
+    <t>Free-text information captured about the task as it progresses.</t>
+  </si>
+  <si>
+    <t>Request.note, Event.note</t>
+  </si>
+  <si>
+    <t>.inboundRelationship[typeCode=SUBJ, ].source[classCode=OBS, moodCode=EVN, code="annotation"].value(string)</t>
+  </si>
+  <si>
+    <t>Task.relevantHistory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Status History
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Provenance)
+</t>
+  </si>
+  <si>
+    <t>Key events in history of the Task</t>
+  </si>
+  <si>
+    <t>Links to Provenance records for past versions of this Task that identify key state transitions or updates that are likely to be relevant to a user looking at the current version of the task.</t>
+  </si>
+  <si>
+    <t>This element does not point to the Provenance associated with the *current* version of the resource - as it would be created after this version existed.  The Provenance for the current version can be retrieved with a _revinclude.</t>
+  </si>
+  <si>
+    <t>Request.relevantHistory</t>
+  </si>
+  <si>
+    <t>.inboundRelationship(typeCode=SUBJ].source[classCode=CACT, moodCode=EVN]</t>
+  </si>
+  <si>
+    <t>Task.restriction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>Constraints on fulfillment tasks</t>
+  </si>
+  <si>
+    <t>If the Task.focus is a request resource and the task is seeking fulfillment (i.e. is asking for the request to be actioned), this element identifies any limitations on what parts of the referenced request should be actioned.</t>
+  </si>
+  <si>
+    <t>Sometimes when fulfillment is sought, you don't want full fulfillment.</t>
+  </si>
+  <si>
+    <t>Instead of pointing to request, would point to component of request, having these characteristics</t>
+  </si>
+  <si>
+    <t>Task.restriction.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Task.restriction.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Task.restriction.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user contentmodifiers</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>BackboneElement.modifierExtension</t>
+  </si>
+  <si>
+    <t>Task.restriction.repetitions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positiveInt
+</t>
+  </si>
+  <si>
+    <t>How many times to repeat</t>
+  </si>
+  <si>
+    <t>Indicates the number of times the requested action should occur.</t>
+  </si>
+  <si>
+    <t>E.g. order that requests monthly lab tests, fulfillment is sought for 1.</t>
+  </si>
+  <si>
+    <t>.repeatNumber</t>
+  </si>
+  <si>
+    <t>Task.restriction.period</t>
+  </si>
+  <si>
+    <t>When fulfillment sought</t>
+  </si>
+  <si>
+    <t>Over what time-period is fulfillment sought.</t>
+  </si>
+  <si>
+    <t>Note that period.high is the due date representing the time by which the task should be completed.</t>
+  </si>
+  <si>
+    <t>E.g. order that authorizes 1 year's services.  Fulfillment is sought for next 3 months.</t>
+  </si>
+  <si>
+    <t>.effectiveTime(IVL&lt;TS&gt;)</t>
+  </si>
+  <si>
+    <t>Task.restriction.recipient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Patient|Practitioner|PractitionerRole|RelatedPerson|Group|Organization)
+</t>
+  </si>
+  <si>
+    <t>For whom is fulfillment sought?</t>
+  </si>
+  <si>
+    <t>For requests that are targeted to more than on potential recipient/target, for whom is fulfillment sought?</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=SBJ].role</t>
   </si>
   <si>
     <t>Task.input</t>
@@ -706,10 +1202,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">BackboneElement
-</t>
-  </si>
-  <si>
     <t>Information used to perform task</t>
   </si>
   <si>
@@ -720,6 +1212,15 @@
   </si>
   <si>
     <t>???</t>
+  </si>
+  <si>
+    <t>Task.input.id</t>
+  </si>
+  <si>
+    <t>Task.input.extension</t>
+  </si>
+  <si>
+    <t>Task.input.modifierExtension</t>
   </si>
   <si>
     <t>Task.input.type</t>
@@ -757,156 +1258,6 @@
     <t>The value of the input parameter as a basic type.</t>
   </si>
   <si>
-    <t>Task.instantiatesCanonical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">canonical(ActivityDefinition)
-</t>
-  </si>
-  <si>
-    <t>Formal definition of task</t>
-  </si>
-  <si>
-    <t>The URL pointing to a *FHIR*-defined protocol, guideline, orderset or other definition that is adhered to in whole or in part by this Task.</t>
-  </si>
-  <si>
-    <t>Enables a formal definition of how he task is to be performed, enabling automation.</t>
-  </si>
-  <si>
-    <t>Request.instantiatesCanonical, Event.instantiatesCanonical</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=DEFN].target</t>
-  </si>
-  <si>
-    <t>Task.instantiatesUri</t>
-  </si>
-  <si>
-    <t>The URL pointing to an *externally* maintained  protocol, guideline, orderset or other definition that is adhered to in whole or in part by this Task.</t>
-  </si>
-  <si>
-    <t>Enables a formal definition of how he task is to be performed (e.g. using BPMN, BPEL, XPDL or other formal notation to be associated with a task), enabling automation.</t>
-  </si>
-  <si>
-    <t>Event.instantiatesUrl</t>
-  </si>
-  <si>
-    <t>Task.insurance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Coverage|ClaimResponse)
-</t>
-  </si>
-  <si>
-    <t>Associated insurance coverage</t>
-  </si>
-  <si>
-    <t>Insurance plans, coverage extensions, pre-authorizations and/or pre-determinations that may be relevant to the Task.</t>
-  </si>
-  <si>
-    <t>Request.insurance</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=COVBY].target</t>
-  </si>
-  <si>
-    <t>IN1/IN2</t>
-  </si>
-  <si>
-    <t>Task.intent</t>
-  </si>
-  <si>
-    <t>unknown | proposal | plan | order | original-order | reflex-order | filler-order | instance-order | option</t>
-  </si>
-  <si>
-    <t>Indicates the "level" of actionability associated with the Task, i.e. i+R[9]Cs this a proposed task, a planned task, an actionable task, etc.</t>
-  </si>
-  <si>
-    <t>This element is immutable.  Proposed tasks, planned tasks, etc. must be distinct instances.
-In most cases, Tasks will have an intent of "order".</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Distinguishes whether the task is a proposal, plan or full order.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/task-intent|4.0.1</t>
-  </si>
-  <si>
-    <t>Request.intent</t>
-  </si>
-  <si>
-    <t>.moodCode</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>Task.lastModified</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Update Date
-</t>
-  </si>
-  <si>
-    <t>Task Last Modified Date</t>
-  </si>
-  <si>
-    <t>The date and time of last modification to this task.</t>
-  </si>
-  <si>
-    <t>Used along with history to track task activity and time in a particular task state.  This enables monitoring and management.</t>
-  </si>
-  <si>
-    <t>.inboundRelationship[typeCode=SUBJ, ].source[classCode=CACT, moodCode=EVN].effectiveTime</t>
-  </si>
-  <si>
-    <t>Task.location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Location)
-</t>
-  </si>
-  <si>
-    <t>Where task occurs</t>
-  </si>
-  <si>
-    <t>Principal physical location where the this task is performed.</t>
-  </si>
-  <si>
-    <t>Ties the event to where the records are likely kept and provides context around the event occurrence (e.g. if it occurred inside or outside a dedicated healthcare setting).</t>
-  </si>
-  <si>
-    <t>Request.reasonCode, Event.reasonCode</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=LOC].role</t>
-  </si>
-  <si>
-    <t>FiveWs.where[x]</t>
-  </si>
-  <si>
-    <t>Task.note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Annotation
-</t>
-  </si>
-  <si>
-    <t>Comments made about the task</t>
-  </si>
-  <si>
-    <t>Free-text information captured about the task as it progresses.</t>
-  </si>
-  <si>
-    <t>Request.note, Event.note</t>
-  </si>
-  <si>
-    <t>.inboundRelationship[typeCode=SUBJ, ].source[classCode=OBS, moodCode=EVN, code="annotation"].value(string)</t>
-  </si>
-  <si>
     <t>Task.output</t>
   </si>
   <si>
@@ -919,6 +1270,15 @@
     <t>Resources and data produced during the execution the task.  This data is generated by the business logic of task execution, and is stored separately because it varies between workflows.</t>
   </si>
   <si>
+    <t>Task.output.id</t>
+  </si>
+  <si>
+    <t>Task.output.extension</t>
+  </si>
+  <si>
+    <t>Task.output.modifierExtension</t>
+  </si>
+  <si>
     <t>Task.output.type</t>
   </si>
   <si>
@@ -944,320 +1304,6 @@
   </si>
   <si>
     <t>Task outputs can take any form.</t>
-  </si>
-  <si>
-    <t>Task.owner</t>
-  </si>
-  <si>
-    <t>Performer
-Executer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam|HealthcareService|Patient|Device|RelatedPerson)
-</t>
-  </si>
-  <si>
-    <t>Responsible individual</t>
-  </si>
-  <si>
-    <t>Individual organization or Device currently responsible for task execution.</t>
-  </si>
-  <si>
-    <t>Tasks may be created with an owner not yet identified.</t>
-  </si>
-  <si>
-    <t>Identifies who is expected to perform this task.</t>
-  </si>
-  <si>
-    <t>Event.performer.actor, Request.performer</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=PRF].role</t>
-  </si>
-  <si>
-    <t>FiveWs.actor</t>
-  </si>
-  <si>
-    <t>Task.partOf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Task)
-</t>
-  </si>
-  <si>
-    <t>Composite task</t>
-  </si>
-  <si>
-    <t>Task that this particular task is part of.</t>
-  </si>
-  <si>
-    <t>This should usually be 0..1.</t>
-  </si>
-  <si>
-    <t>Allows tasks to be broken down into sub-steps (and this division can occur independent of the original task).</t>
-  </si>
-  <si>
-    <t>Event.partOf</t>
-  </si>
-  <si>
-    <t>.inboundRelationship[typeCode=COMP].source[moodCode=INT]</t>
-  </si>
-  <si>
-    <t>Task.performerType</t>
-  </si>
-  <si>
-    <t>Requested performer</t>
-  </si>
-  <si>
-    <t>The kind of participant that should perform the task.</t>
-  </si>
-  <si>
-    <t>Use to distinguish tasks on different activity queues.</t>
-  </si>
-  <si>
-    <t>The type(s) of task performers allowed.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/performer-role</t>
-  </si>
-  <si>
-    <t>Event.performer.role, Request.performerType</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=PRF].role.code</t>
-  </si>
-  <si>
-    <t>Task.priority</t>
-  </si>
-  <si>
-    <t>routine | urgent | asap | stat</t>
-  </si>
-  <si>
-    <t>Indicates how quickly the Task should be addressed with respect to other requests.</t>
-  </si>
-  <si>
-    <t>Used to identify the service level expected while performing a task.</t>
-  </si>
-  <si>
-    <t>If missing, this task should be performed with normal priority</t>
-  </si>
-  <si>
-    <t>The task's priority.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/request-priority|4.0.1</t>
-  </si>
-  <si>
-    <t>Request.priority</t>
-  </si>
-  <si>
-    <t>.priorityCode</t>
-  </si>
-  <si>
-    <t>FiveWs.grade</t>
-  </si>
-  <si>
-    <t>Task.reasonCode</t>
-  </si>
-  <si>
-    <t>Why task is needed</t>
-  </si>
-  <si>
-    <t>A description or code indicating why this task needs to be performed.</t>
-  </si>
-  <si>
-    <t>This should only be included if there is no focus or if it differs from the reason indicated on the focus.</t>
-  </si>
-  <si>
-    <t>Indicates why the task is needed.  E.g. Suspended because patient admitted to hospital.</t>
-  </si>
-  <si>
-    <t>Event.location</t>
-  </si>
-  <si>
-    <t>.reasonCode</t>
-  </si>
-  <si>
-    <t>FiveWs.why[x]</t>
-  </si>
-  <si>
-    <t>EVN.7</t>
-  </si>
-  <si>
-    <t>Task.reasonReference</t>
-  </si>
-  <si>
-    <t>A resource reference indicating why this task needs to be performed.</t>
-  </si>
-  <si>
-    <t>Tasks might be justified based on an Observation, a Condition, a past or planned procedure, etc.   This should only be included if there is no focus or if it differs from the reason indicated on the focus.    Use the CodeableConcept text element in `Task.reasonCode` if the data is free (uncoded) text.</t>
-  </si>
-  <si>
-    <t>Request.reasonReference, Event.reasonReference</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=RSON].target</t>
-  </si>
-  <si>
-    <t>Task.relevantHistory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Status History
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Provenance)
-</t>
-  </si>
-  <si>
-    <t>Key events in history of the Task</t>
-  </si>
-  <si>
-    <t>Links to Provenance records for past versions of this Task that identify key state transitions or updates that are likely to be relevant to a user looking at the current version of the task.</t>
-  </si>
-  <si>
-    <t>This element does not point to the Provenance associated with the *current* version of the resource - as it would be created after this version existed.  The Provenance for the current version can be retrieved with a _revinclude.</t>
-  </si>
-  <si>
-    <t>Request.relevantHistory</t>
-  </si>
-  <si>
-    <t>.inboundRelationship(typeCode=SUBJ].source[classCode=CACT, moodCode=EVN]</t>
-  </si>
-  <si>
-    <t>Task.requester</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Device|Organization|Patient|Practitioner|PractitionerRole|RelatedPerson)
-</t>
-  </si>
-  <si>
-    <t>Who is asking for task to be done</t>
-  </si>
-  <si>
-    <t>The creator of the task.</t>
-  </si>
-  <si>
-    <t>Identifies who created this task.  May be used by access control mechanisms (e.g., to ensure that only the creator can cancel a task).</t>
-  </si>
-  <si>
-    <t>Request.requester</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=AUT].role</t>
-  </si>
-  <si>
-    <t>FiveWs.author</t>
-  </si>
-  <si>
-    <t>Task.restriction</t>
-  </si>
-  <si>
-    <t>Constraints on fulfillment tasks</t>
-  </si>
-  <si>
-    <t>If the Task.focus is a request resource and the task is seeking fulfillment (i.e. is asking for the request to be actioned), this element identifies any limitations on what parts of the referenced request should be actioned.</t>
-  </si>
-  <si>
-    <t>Sometimes when fulfillment is sought, you don't want full fulfillment.</t>
-  </si>
-  <si>
-    <t>Instead of pointing to request, would point to component of request, having these characteristics</t>
-  </si>
-  <si>
-    <t>Task.restriction.period</t>
-  </si>
-  <si>
-    <t>When fulfillment sought</t>
-  </si>
-  <si>
-    <t>Over what time-period is fulfillment sought.</t>
-  </si>
-  <si>
-    <t>Note that period.high is the due date representing the time by which the task should be completed.</t>
-  </si>
-  <si>
-    <t>E.g. order that authorizes 1 year's services.  Fulfillment is sought for next 3 months.</t>
-  </si>
-  <si>
-    <t>.effectiveTime(IVL&lt;TS&gt;)</t>
-  </si>
-  <si>
-    <t>Task.restriction.recipient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Patient|Practitioner|PractitionerRole|RelatedPerson|Group|Organization)
-</t>
-  </si>
-  <si>
-    <t>For whom is fulfillment sought?</t>
-  </si>
-  <si>
-    <t>For requests that are targeted to more than on potential recipient/target, for whom is fulfillment sought?</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=SBJ].role</t>
-  </si>
-  <si>
-    <t>Task.restriction.repetitions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">positiveInt
-</t>
-  </si>
-  <si>
-    <t>How many times to repeat</t>
-  </si>
-  <si>
-    <t>Indicates the number of times the requested action should occur.</t>
-  </si>
-  <si>
-    <t>E.g. order that requests monthly lab tests, fulfillment is sought for 1.</t>
-  </si>
-  <si>
-    <t>.repeatNumber</t>
-  </si>
-  <si>
-    <t>Task.status</t>
-  </si>
-  <si>
-    <t>draft | requested | received | accepted | +</t>
-  </si>
-  <si>
-    <t>The current status of the task.</t>
-  </si>
-  <si>
-    <t>These states enable coordination of task status with off-the-shelf workflow solutions that support automation of tasks.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/task-status|4.0.1</t>
-  </si>
-  <si>
-    <t>Request.status, Event.status</t>
-  </si>
-  <si>
-    <t>.statusCode</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>Task.statusReason</t>
-  </si>
-  <si>
-    <t>Reason for current status</t>
-  </si>
-  <si>
-    <t>An explanation as to why this task is held, failed, was refused, etc.</t>
-  </si>
-  <si>
-    <t>This applies to the current status.  Look at the history of the task to see reasons for past statuses.</t>
-  </si>
-  <si>
-    <t>Codes to identify the reason for current status.  These will typically be specific to a particular workflow.</t>
-  </si>
-  <si>
-    <t>.inboundRelationship[typeCode=SUBJ].source[classCode=CACT, moodCode=EVN, code="status change"].reasonCode</t>
   </si>
 </sst>
 </file>
@@ -1552,7 +1598,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM48"/>
+  <dimension ref="A1:AM57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1561,7 +1607,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="25.046875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="31.66015625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
@@ -1588,10 +1634,10 @@
     <col min="25" max="25" width="46.77734375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.0859375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="32.79296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
@@ -1803,7 +1849,7 @@
         <v>72</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>76</v>
+        <v>7</v>
       </c>
       <c r="AF2" t="s" s="2">
         <v>73</v>
@@ -1815,13 +1861,13 @@
         <v>72</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>78</v>
-      </c>
-      <c r="AK2" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AL2" t="s" s="2">
         <v>72</v>
@@ -1832,7 +1878,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1843,28 +1889,28 @@
         <v>73</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -1914,13 +1960,13 @@
         <v>72</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>72</v>
@@ -1943,7 +1989,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -1954,25 +2000,25 @@
         <v>73</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>90</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>91</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2023,19 +2069,19 @@
         <v>72</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>72</v>
@@ -2052,7 +2098,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2063,28 +2109,28 @@
         <v>73</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>98</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -2134,19 +2180,19 @@
         <v>72</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>72</v>
@@ -2163,7 +2209,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -2174,7 +2220,7 @@
         <v>73</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>72</v>
@@ -2186,16 +2232,16 @@
         <v>72</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>104</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2221,43 +2267,43 @@
         <v>72</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>108</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>72</v>
@@ -2274,18 +2320,18 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>72</v>
@@ -2297,16 +2343,16 @@
         <v>72</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>114</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2356,25 +2402,25 @@
         <v>72</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK7" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>116</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>72</v>
@@ -2385,11 +2431,11 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -2408,16 +2454,16 @@
         <v>72</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2467,7 +2513,7 @@
         <v>72</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>73</v>
@@ -2485,7 +2531,7 @@
         <v>72</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>72</v>
@@ -2496,11 +2542,11 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2519,16 +2565,16 @@
         <v>72</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2566,19 +2612,19 @@
         <v>72</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>131</v>
+        <v>72</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>132</v>
+        <v>72</v>
       </c>
       <c r="AC9" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>133</v>
+        <v>72</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>73</v>
@@ -2590,13 +2636,13 @@
         <v>72</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>72</v>
@@ -2607,11 +2653,11 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2624,25 +2670,25 @@
         <v>72</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>72</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>72</v>
@@ -2679,19 +2725,19 @@
         <v>72</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>131</v>
+        <v>72</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>132</v>
+        <v>72</v>
       </c>
       <c r="AC10" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>133</v>
+        <v>72</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>73</v>
@@ -2703,13 +2749,13 @@
         <v>72</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>72</v>
@@ -2720,18 +2766,18 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>142</v>
+        <v>72</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>72</v>
@@ -2743,18 +2789,16 @@
         <v>72</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="M11" s="2"/>
-      <c r="N11" t="s" s="2">
-        <v>146</v>
-      </c>
+      <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
         <v>72</v>
       </c>
@@ -2802,28 +2846,28 @@
         <v>72</v>
       </c>
       <c r="AE11" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AF11" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG11" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH11" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI11" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="AF11" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG11" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH11" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="AI11" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ11" t="s" s="2">
-        <v>148</v>
-      </c>
       <c r="AK11" t="s" s="2">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>72</v>
@@ -2831,7 +2875,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2842,7 +2886,7 @@
         <v>73</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>72</v>
@@ -2851,19 +2895,21 @@
         <v>72</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
+      <c r="N12" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="O12" t="s" s="2">
         <v>72</v>
       </c>
@@ -2911,25 +2957,25 @@
         <v>72</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>72</v>
@@ -2940,7 +2986,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2951,29 +2997,29 @@
         <v>73</v>
       </c>
       <c r="F13" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I13" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G13" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H13" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I13" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="J13" t="s" s="2">
-        <v>158</v>
+        <v>94</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" t="s" s="2">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="O13" t="s" s="2">
         <v>72</v>
@@ -2998,10 +3044,10 @@
         <v>72</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>162</v>
+        <v>72</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>163</v>
+        <v>72</v>
       </c>
       <c r="Y13" t="s" s="2">
         <v>72</v>
@@ -3022,25 +3068,25 @@
         <v>72</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>72</v>
+        <v>154</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>72</v>
@@ -3051,7 +3097,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3062,29 +3108,27 @@
         <v>73</v>
       </c>
       <c r="F14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I14" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H14" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I14" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="J14" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="K14" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="K14" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>168</v>
-      </c>
+      <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>72</v>
@@ -3109,13 +3153,13 @@
         <v>72</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>162</v>
+        <v>72</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>169</v>
+        <v>72</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>170</v>
+        <v>72</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>72</v>
@@ -3133,28 +3177,28 @@
         <v>72</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>173</v>
+        <v>72</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>72</v>
@@ -3162,7 +3206,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3173,28 +3217,30 @@
         <v>73</v>
       </c>
       <c r="F15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I15" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G15" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H15" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="J15" t="s" s="2">
-        <v>83</v>
+        <v>138</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
+      <c r="N15" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="O15" t="s" s="2">
         <v>72</v>
       </c>
@@ -3242,25 +3288,25 @@
         <v>72</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>72</v>
+        <v>165</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>72</v>
@@ -3271,7 +3317,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3282,29 +3328,31 @@
         <v>73</v>
       </c>
       <c r="F16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I16" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G16" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H16" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="J16" t="s" s="2">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="M16" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>171</v>
+      </c>
       <c r="N16" t="s" s="2">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>72</v>
@@ -3353,28 +3401,28 @@
         <v>72</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>185</v>
+        <v>72</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>72</v>
@@ -3382,7 +3430,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3390,31 +3438,33 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F17" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H17" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G17" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>72</v>
-      </c>
       <c r="I17" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>187</v>
+        <v>100</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
+      <c r="N17" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="O17" t="s" s="2">
         <v>72</v>
       </c>
@@ -3438,13 +3488,13 @@
         <v>72</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>72</v>
+        <v>179</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>72</v>
+        <v>177</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>72</v>
+        <v>180</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>72</v>
@@ -3462,28 +3512,28 @@
         <v>72</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>72</v>
@@ -3491,7 +3541,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3502,32 +3552,30 @@
         <v>73</v>
       </c>
       <c r="F18" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I18" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G18" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H18" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="J18" t="s" s="2">
-        <v>152</v>
+        <v>185</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>197</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>72</v>
       </c>
@@ -3551,10 +3599,10 @@
         <v>72</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>72</v>
+        <v>189</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>72</v>
+        <v>190</v>
       </c>
       <c r="Y18" t="s" s="2">
         <v>72</v>
@@ -3575,28 +3623,28 @@
         <v>72</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>173</v>
+        <v>72</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>72</v>
@@ -3604,40 +3652,40 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>200</v>
+        <v>72</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I19" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G19" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H19" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="J19" t="s" s="2">
-        <v>152</v>
+        <v>185</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" t="s" s="2">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>72</v>
@@ -3662,10 +3710,10 @@
         <v>72</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>72</v>
+        <v>189</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>72</v>
+        <v>196</v>
       </c>
       <c r="Y19" t="s" s="2">
         <v>72</v>
@@ -3686,28 +3734,28 @@
         <v>72</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>204</v>
+        <v>72</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>206</v>
+        <v>72</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>72</v>
@@ -3715,7 +3763,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3723,33 +3771,33 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I20" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G20" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H20" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="J20" t="s" s="2">
-        <v>208</v>
+        <v>100</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="M20" s="2"/>
-      <c r="N20" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>72</v>
       </c>
@@ -3773,13 +3821,13 @@
         <v>72</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>72</v>
+        <v>179</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>72</v>
+        <v>202</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>72</v>
+        <v>203</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>72</v>
@@ -3797,28 +3845,28 @@
         <v>72</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>72</v>
+        <v>206</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>72</v>
@@ -3826,7 +3874,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3837,7 +3885,7 @@
         <v>73</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>72</v>
@@ -3849,85 +3897,89 @@
         <v>72</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="M21" s="2"/>
+      <c r="N21" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="O21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P21" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="Q21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AK21" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="AL21" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P21" s="2"/>
-      <c r="Q21" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="R21" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S21" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T21" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U21" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V21" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W21" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X21" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y21" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z21" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>72</v>
@@ -3935,18 +3987,18 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>221</v>
+        <v>72</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>72</v>
@@ -3955,21 +4007,21 @@
         <v>72</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>222</v>
+        <v>185</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="M22" s="2"/>
-      <c r="N22" t="s" s="2">
-        <v>225</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>72</v>
       </c>
@@ -3993,13 +4045,13 @@
         <v>72</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>72</v>
+        <v>189</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>72</v>
+        <v>221</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>72</v>
+        <v>222</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>72</v>
@@ -4017,28 +4069,28 @@
         <v>72</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>72</v>
+        <v>223</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>72</v>
+        <v>225</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>72</v>
@@ -4046,43 +4098,39 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>228</v>
+        <v>72</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I23" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="F23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G23" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H23" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I23" t="s" s="2">
-        <v>72</v>
-      </c>
       <c r="J23" t="s" s="2">
-        <v>158</v>
+        <v>82</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>232</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>72</v>
       </c>
@@ -4106,10 +4154,10 @@
         <v>72</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>162</v>
+        <v>72</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>233</v>
+        <v>72</v>
       </c>
       <c r="Y23" t="s" s="2">
         <v>72</v>
@@ -4130,25 +4178,25 @@
         <v>72</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>72</v>
@@ -4159,7 +4207,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4167,31 +4215,35 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I24" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="F24" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G24" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H24" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>72</v>
-      </c>
       <c r="J24" t="s" s="2">
-        <v>235</v>
+        <v>156</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="O24" t="s" s="2">
         <v>72</v>
       </c>
@@ -4239,28 +4291,28 @@
         <v>72</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>72</v>
+        <v>225</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>72</v>
@@ -4268,40 +4320,40 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>72</v>
+        <v>237</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I25" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G25" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H25" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I25" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="J25" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="K25" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="K25" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>72</v>
@@ -4350,28 +4402,28 @@
         <v>72</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ25" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AL25" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>72</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>72</v>
@@ -4379,7 +4431,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4390,29 +4442,29 @@
         <v>73</v>
       </c>
       <c r="F26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I26" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G26" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H26" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="J26" t="s" s="2">
-        <v>95</v>
+        <v>245</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>72</v>
@@ -4461,28 +4513,28 @@
         <v>72</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>72</v>
+        <v>251</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>72</v>
@@ -4490,7 +4542,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4501,7 +4553,7 @@
         <v>73</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>72</v>
@@ -4510,16 +4562,16 @@
         <v>72</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4570,47 +4622,47 @@
         <v>72</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>72</v>
+        <v>258</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>255</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>72</v>
+        <v>260</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>72</v>
@@ -4619,21 +4671,21 @@
         <v>72</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>101</v>
+        <v>261</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>263</v>
+      </c>
+      <c r="M28" s="2"/>
+      <c r="N28" t="s" s="2">
+        <v>264</v>
+      </c>
       <c r="O28" t="s" s="2">
         <v>72</v>
       </c>
@@ -4657,13 +4709,13 @@
         <v>72</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>260</v>
+        <v>72</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>261</v>
+        <v>72</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>262</v>
+        <v>72</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>72</v>
@@ -4681,28 +4733,28 @@
         <v>72</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>72</v>
+        <v>265</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>72</v>
@@ -4710,40 +4762,40 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I29" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G29" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H29" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="J29" t="s" s="2">
-        <v>143</v>
+        <v>261</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>72</v>
@@ -4792,25 +4844,25 @@
         <v>72</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>147</v>
+        <v>265</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>72</v>
@@ -4821,7 +4873,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4832,29 +4884,29 @@
         <v>73</v>
       </c>
       <c r="F30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I30" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G30" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H30" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I30" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="J30" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>72</v>
@@ -4903,28 +4955,28 @@
         <v>72</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>72</v>
@@ -4932,7 +4984,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4955,16 +5007,18 @@
         <v>72</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>281</v>
+        <v>185</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
+      <c r="N31" t="s" s="2">
+        <v>286</v>
+      </c>
       <c r="O31" t="s" s="2">
         <v>72</v>
       </c>
@@ -4988,13 +5042,13 @@
         <v>72</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>72</v>
+        <v>287</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>72</v>
+        <v>288</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>72</v>
@@ -5012,7 +5066,7 @@
         <v>72</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>73</v>
@@ -5024,16 +5078,16 @@
         <v>72</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>72</v>
+        <v>291</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>72</v>
@@ -5041,18 +5095,18 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>72</v>
+        <v>293</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>72</v>
@@ -5061,20 +5115,22 @@
         <v>72</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>222</v>
+        <v>294</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="M32" s="2"/>
+        <v>296</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>297</v>
+      </c>
       <c r="N32" t="s" s="2">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>72</v>
@@ -5123,28 +5179,28 @@
         <v>72</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>72</v>
+        <v>299</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>226</v>
+        <v>300</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>72</v>
+        <v>291</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>72</v>
@@ -5152,40 +5208,40 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>228</v>
+        <v>72</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I33" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="F33" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>72</v>
-      </c>
       <c r="J33" t="s" s="2">
-        <v>158</v>
+        <v>302</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" t="s" s="2">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>72</v>
@@ -5210,10 +5266,10 @@
         <v>72</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>162</v>
+        <v>72</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>294</v>
+        <v>72</v>
       </c>
       <c r="Y33" t="s" s="2">
         <v>72</v>
@@ -5234,28 +5290,28 @@
         <v>72</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>72</v>
+        <v>306</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>226</v>
+        <v>307</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>72</v>
+        <v>308</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>72</v>
@@ -5263,7 +5319,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5271,10 +5327,10 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>72</v>
@@ -5286,18 +5342,18 @@
         <v>72</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>235</v>
+        <v>185</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="M34" s="2"/>
-      <c r="N34" t="s" s="2">
-        <v>298</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>72</v>
       </c>
@@ -5321,10 +5377,10 @@
         <v>72</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>72</v>
+        <v>189</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>72</v>
+        <v>313</v>
       </c>
       <c r="Y34" t="s" s="2">
         <v>72</v>
@@ -5345,47 +5401,47 @@
         <v>72</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>72</v>
+        <v>314</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>226</v>
+        <v>315</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>72</v>
+        <v>316</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>72</v>
+        <v>317</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>299</v>
+        <v>318</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>300</v>
+        <v>72</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>72</v>
@@ -5394,23 +5450,21 @@
         <v>72</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>301</v>
+        <v>156</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>305</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>72</v>
       </c>
@@ -5458,28 +5512,28 @@
         <v>72</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>299</v>
+        <v>318</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>72</v>
@@ -5487,7 +5541,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5507,23 +5561,19 @@
         <v>72</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>72</v>
       </c>
@@ -5571,7 +5621,7 @@
         <v>72</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>73</v>
@@ -5583,24 +5633,24 @@
         <v>72</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>72</v>
+        <v>329</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5623,18 +5673,16 @@
         <v>72</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>158</v>
+        <v>331</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="M37" s="2"/>
-      <c r="N37" t="s" s="2">
-        <v>320</v>
-      </c>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>72</v>
       </c>
@@ -5658,13 +5706,13 @@
         <v>72</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>321</v>
+        <v>72</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>322</v>
+        <v>72</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>72</v>
@@ -5682,7 +5730,7 @@
         <v>72</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>73</v>
@@ -5694,16 +5742,16 @@
         <v>72</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>308</v>
+        <v>72</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>72</v>
@@ -5711,18 +5759,18 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>72</v>
+        <v>337</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>72</v>
@@ -5734,24 +5782,22 @@
         <v>72</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>101</v>
+        <v>338</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="M38" s="2"/>
-      <c r="N38" t="s" s="2">
-        <v>328</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>72</v>
       </c>
-      <c r="P38" t="s" s="2">
-        <v>329</v>
-      </c>
+      <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
         <v>72</v>
       </c>
@@ -5771,13 +5817,13 @@
         <v>72</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>260</v>
+        <v>72</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>330</v>
+        <v>72</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>331</v>
+        <v>72</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>72</v>
@@ -5795,28 +5841,28 @@
         <v>72</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>334</v>
+        <v>72</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>72</v>
@@ -5824,7 +5870,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5835,7 +5881,7 @@
         <v>73</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>72</v>
@@ -5847,18 +5893,18 @@
         <v>72</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>158</v>
+        <v>345</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>347</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" t="s" s="2">
+        <v>348</v>
+      </c>
       <c r="O39" t="s" s="2">
         <v>72</v>
       </c>
@@ -5882,10 +5928,10 @@
         <v>72</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>162</v>
+        <v>72</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>339</v>
+        <v>72</v>
       </c>
       <c r="Y39" t="s" s="2">
         <v>72</v>
@@ -5906,36 +5952,36 @@
         <v>72</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>340</v>
+        <v>72</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>342</v>
+        <v>72</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>343</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5946,7 +5992,7 @@
         <v>73</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>72</v>
@@ -5958,17 +6004,15 @@
         <v>72</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>152</v>
+        <v>82</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>336</v>
+        <v>351</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>346</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>72</v>
@@ -6017,13 +6061,13 @@
         <v>72</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>72</v>
@@ -6032,13 +6076,13 @@
         <v>72</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>347</v>
+        <v>72</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>342</v>
+        <v>72</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>72</v>
@@ -6046,11 +6090,11 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>350</v>
+        <v>125</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6069,16 +6113,16 @@
         <v>72</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>351</v>
+        <v>126</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>352</v>
+        <v>127</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>354</v>
+        <v>129</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6128,7 +6172,7 @@
         <v>72</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>73</v>
@@ -6140,13 +6184,13 @@
         <v>72</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>72</v>
+        <v>131</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>355</v>
+        <v>72</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>72</v>
@@ -6157,40 +6201,42 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>72</v>
+        <v>359</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H42" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G42" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H42" t="s" s="2">
-        <v>72</v>
-      </c>
       <c r="I42" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>358</v>
+        <v>126</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="M42" s="2"/>
+        <v>361</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>129</v>
+      </c>
       <c r="N42" t="s" s="2">
-        <v>361</v>
+        <v>135</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>72</v>
@@ -6239,28 +6285,28 @@
         <v>72</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>72</v>
+        <v>131</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>362</v>
+        <v>72</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>363</v>
+        <v>123</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>364</v>
+        <v>72</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>72</v>
@@ -6268,7 +6314,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6279,7 +6325,7 @@
         <v>73</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>72</v>
@@ -6291,17 +6337,17 @@
         <v>72</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>222</v>
+        <v>364</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>72</v>
@@ -6350,25 +6396,25 @@
         <v>72</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>72</v>
@@ -6379,7 +6425,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6390,7 +6436,7 @@
         <v>73</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>72</v>
@@ -6402,19 +6448,19 @@
         <v>72</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>187</v>
+        <v>253</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>374</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>72</v>
@@ -6463,25 +6509,25 @@
         <v>72</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>72</v>
@@ -6492,7 +6538,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6515,13 +6561,13 @@
         <v>72</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="K45" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="K45" t="s" s="2">
+      <c r="L45" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>379</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6572,7 +6618,7 @@
         <v>72</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>73</v>
@@ -6584,13 +6630,13 @@
         <v>72</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>72</v>
@@ -6601,18 +6647,18 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>72</v>
+        <v>381</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>72</v>
@@ -6624,17 +6670,17 @@
         <v>72</v>
       </c>
       <c r="J46" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="K46" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="K46" t="s" s="2">
+      <c r="L46" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>72</v>
@@ -6683,25 +6729,25 @@
         <v>72</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>72</v>
@@ -6712,7 +6758,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6720,33 +6766,31 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J47" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="I47" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J47" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="K47" t="s" s="2">
-        <v>388</v>
+        <v>351</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>389</v>
+        <v>352</v>
       </c>
       <c r="M47" s="2"/>
-      <c r="N47" t="s" s="2">
-        <v>390</v>
-      </c>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>72</v>
       </c>
@@ -6770,13 +6814,13 @@
         <v>72</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>260</v>
+        <v>72</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>389</v>
+        <v>72</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>391</v>
+        <v>72</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>72</v>
@@ -6794,13 +6838,13 @@
         <v>72</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>387</v>
+        <v>353</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>72</v>
@@ -6809,13 +6853,13 @@
         <v>72</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>392</v>
+        <v>72</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>393</v>
+        <v>354</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>394</v>
+        <v>72</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>72</v>
@@ -6823,18 +6867,18 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>72</v>
@@ -6843,19 +6887,19 @@
         <v>72</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>158</v>
+        <v>126</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>396</v>
+        <v>127</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>397</v>
+        <v>356</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>398</v>
+        <v>129</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -6881,54 +6925,1055 @@
         <v>72</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>162</v>
+        <v>72</v>
       </c>
       <c r="X48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P49" s="2"/>
+      <c r="Q49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P50" s="2"/>
+      <c r="Q50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="Y48" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z48" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA48" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD48" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE48" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="AF48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG48" t="s" s="2">
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P51" s="2"/>
+      <c r="Q51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P52" s="2"/>
+      <c r="Q52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P53" s="2"/>
+      <c r="Q53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P54" s="2"/>
+      <c r="Q54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H55" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="AH48" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AM48" t="s" s="2">
+      <c r="I55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P55" s="2"/>
+      <c r="Q55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="M56" s="2"/>
+      <c r="N56" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P56" s="2"/>
+      <c r="Q56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="M57" s="2"/>
+      <c r="N57" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P57" s="2"/>
+      <c r="Q57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AM57" t="s" s="2">
         <v>72</v>
       </c>
     </row>

--- a/v0.7/StructureDefinition-Task.xlsx
+++ b/v0.7/StructureDefinition-Task.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.0.1</t>
+    <t>0.7.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Publisher</t>
   </si>
   <si>
-    <t>HL7 International - HCX</t>
+    <t>HCX Open Community</t>
   </si>
   <si>
     <t>Contact</t>
